--- a/biology/Neurosciences/Moelle_spinale/Moelle_spinale.xlsx
+++ b/biology/Neurosciences/Moelle_spinale/Moelle_spinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moelle épinière de l’être humain
 La moelle spinale (selon la nouvelle nomenclature), ou moelle épinière (dans l’ancienne nomenclature), désigne la partie du système nerveux central qui prolonge la moelle allongée appartenant au tronc cérébral. Elle est contenue dans le canal rachidien (canal formé par la superposition des foramens vertébraux), qui la soutient et la protège.
@@ -513,7 +525,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle spinale dérive du tube neural mis en place chez l'humain à la 4e semaine de développement grâce à la neurulation, en arrière du rhombencéphale.
 Lorsque le tube neural se développe, la notochorde sous-jacente produit un facteur connu sous le nom de sonic hedgehog ou SHH. En réaction, la partie inférieure du tube se met également à sécréter du SHH et induit le développement des motoneurones. Dans le même temps, l'ectoderme supérieur secrète du BMP, pour « bone morphogenetic protein » (protéine morphogénétique de l'os), qui, à l'inverse, induira le développement des neurones sensoriels. C'est ce couple de facteurs antagonistes, diffusant depuis des zones opposées, qui sera à l'origine de la régionalisation dorso-ventrale de la moelle spinale.
@@ -548,9 +562,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La moelle spinale présente un aspect cylindrique et aplati d'avant en arrière pour une taille de 43 cm, une épaisseur de 1,5 cm[1] et une masse de 30 grammes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La moelle spinale présente un aspect cylindrique et aplati d'avant en arrière pour une taille de 43 cm, une épaisseur de 1,5 cm et une masse de 30 grammes.
 On la distingue de haut en bas une région cervicale, thoracique, lombaire, sacrée et coccygienne. Les repères utilisés sont ceux des vertèbres de la colonne vertébrale (attention, en raison de la croissance allométrique, les régions ne correspondent pas forcément entre la colonne et celles de la moelle).
 La moelle spinale présente deux renflements :
 le renflement cervical, situé entre C4 et T1, est le point d'entrée et de sortie des neurones sensoriels et des motoneurones innervant les membres supérieurs (bras) ;
@@ -561,8 +577,43 @@
 Cette dernière région entoure le canal épendymaire, qui constitue l'extension des ventricules cérébraux et contient un liquide dénommé liquide cérébrospinal, ou liquide céphalo-rachidien selon l'ancienne nomenclature (LCS ou LCR).
 La moelle spinale a une forme qui parait compressée dorso-ventralement, ce qui lui donne une forme ellipsoïde. Elle possède un creux sur sa face dorsale (le sillon médian) et un autre sur sa face ventrale (la fissure médiane).
 Les trois méninges qui recouvrent et protègent la moelle spinale s'appellent la dure-mère (sur la face externe), l'arachnoïde et la pie-mère (au contact de la moelle) et sont un prolongement des méninges du cerveau. De même que dans le cerveau, l'espace sous-arachnoïdien (entre l'arachnoïde et la pie mère) contient du liquide cérébrospinal, liquide qui peut être prélevé durant un examen appelé ponction lombaire. Enfin, la moelle spinale est stabilisée à l'aide de ligaments dentelés qui s'étendent de la pie-mère latéralement au niveau des racines ventrales et dorsales des nerfs spinaux.
-Segments de la moelle spinale et nerfs spinaux
-Chez l'humain, la moelle spinale est divisée en 31 segments appelés segments médullaires. La grenouille en possède 10. À chaque segment se forme une paire de nerfs spinaux (à droite et à gauche), chacun contenant des motoneurones et des neurones sensoriels ; ce sont des nerfs mixtes, présentant des connexions entrantes (neurones sensoriels) et sortantes (motoneurones).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Moelle_spinale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moelle_spinale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Segments de la moelle spinale et nerfs spinaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'humain, la moelle spinale est divisée en 31 segments appelés segments médullaires. La grenouille en possède 10. À chaque segment se forme une paire de nerfs spinaux (à droite et à gauche), chacun contenant des motoneurones et des neurones sensoriels ; ce sont des nerfs mixtes, présentant des connexions entrantes (neurones sensoriels) et sortantes (motoneurones).
 De 6 à 8 radicelles motrices émergent de façon ventrale et de chaque côté, au niveau de points de sortie moteurs, et forment une racine motrice.
 Les neurones sensoriels, dont les corps neuronaux se situent dans une structure extérieure à la moelle, appelé ganglion spinal, entrent de la même façon de manière dorsale au niveau des points d'entrée des racines ventrales.
 Ces deux branches se rejoignent à distance de la moelle pour finalement former les nerfs spinaux.
@@ -573,68 +624,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Moelle_spinale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Moelle_spinale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle spinale a trois circuits majeurs :
 un circuit descendant relayant les informations motrices vers les muscles ;
 un circuit ascendant véhiculant les informations sensorielles vers le cerveau ;
 un centre de coordination de certains réflexes.
 Elle renferme des réseaux de neurones agissant tels des centres de contrôle pour la marche, la miction, la défécation ou l'éjaculation.
-Les neurones spinaux fonctionnent selon des processus plus proches de ceux du cortex cérébral que ce qu’on a cru jusqu’au début des années 2000. Vers 2006-2007, il fut montré qu'un même mouvement précisément reproduit pouvait être généré par un réseau différent de neurones à chaque reproduction du mouvement. Les réseaux neuronaux spinaux ont donc une activité aléatoire et non simplement mécanique. Celui impliqué dans le contrôle de la marche, ou réseau locomoteur spinal (aussi appelé « central pattern generator » ou CPG en anglais), peut fonctionner de manière quasi autonome dans certaines conditions expérimentales. À la suite de la transmission de signaux déclencheurs provenant du cerveau (ex. : cortex moteur ou région mésencéphalique locomotrice, MLR en anglais) ou à une activation par des moyens pharmacologiques, les travaux de Pierre A. Guertin chez la souris et Sten Griller avant lui chez le chat ont montré que le CPG peut générer à lui seul une activité locomotrice de base[3] 
-La moelle apparaît ainsi de moins en moins comme une gaine de câbles et de plus en plus comme un prolongement complexe du cerveau[4].
+Les neurones spinaux fonctionnent selon des processus plus proches de ceux du cortex cérébral que ce qu’on a cru jusqu’au début des années 2000. Vers 2006-2007, il fut montré qu'un même mouvement précisément reproduit pouvait être généré par un réseau différent de neurones à chaque reproduction du mouvement. Les réseaux neuronaux spinaux ont donc une activité aléatoire et non simplement mécanique. Celui impliqué dans le contrôle de la marche, ou réseau locomoteur spinal (aussi appelé « central pattern generator » ou CPG en anglais), peut fonctionner de manière quasi autonome dans certaines conditions expérimentales. À la suite de la transmission de signaux déclencheurs provenant du cerveau (ex. : cortex moteur ou région mésencéphalique locomotrice, MLR en anglais) ou à une activation par des moyens pharmacologiques, les travaux de Pierre A. Guertin chez la souris et Sten Griller avant lui chez le chat ont montré que le CPG peut générer à lui seul une activité locomotrice de base 
+La moelle apparaît ainsi de moins en moins comme une gaine de câbles et de plus en plus comme un prolongement complexe du cerveau.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Moelle_spinale</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Moelle_spinale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Pathologies médullaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sclérose en plaques
 Poliomyélite
@@ -647,33 +702,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Moelle_spinale</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Moelle_spinale</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En triperie, la moelle spinale des animaux d'élevage s'appelle amourettes[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En triperie, la moelle spinale des animaux d'élevage s'appelle amourettes.
 </t>
         </is>
       </c>
